--- a/Data Analysis.xlsx
+++ b/Data Analysis.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elodi\Desktop\Viseu\Cours\AED\Final work\aed_trabalho_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A0BD29-AE55-44D3-BCE3-5EF2F9A71D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59434DA2-6C46-456F-BF01-3A97F6FDC84C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{012C06CD-685C-45C0-81D6-76FF0EDE5B7E}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{012C06CD-685C-45C0-81D6-76FF0EDE5B7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9354BE91-A3B9-48BB-8CBC-B027A3B1FDC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Naive Bayes</t>
   </si>
@@ -71,12 +73,47 @@
   <si>
     <t>labelEncoder+standardScaler</t>
   </si>
+  <si>
+    <t>labelEncoder</t>
+  </si>
+  <si>
+    <t>Lymphography</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>labelEncoder + oneHotEncoder + standardScaler</t>
+  </si>
+  <si>
+    <t>Decision tree</t>
+  </si>
+  <si>
+    <t>Random forest</t>
+  </si>
+  <si>
+    <t>kNN</t>
+  </si>
+  <si>
+    <t>0,.8145153035111066</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,10 +145,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,12 +158,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -137,8 +169,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -155,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,52 +511,55 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="A31" sqref="A31:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -507,19 +567,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:12">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
         <v>0.15</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -527,13 +587,13 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -541,10 +601,10 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>3463</v>
@@ -559,15 +619,15 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>636</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>556</v>
       </c>
       <c r="G6" s="2"/>
@@ -577,17 +637,17 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
+    <row r="7" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8">
         <v>0.3</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -595,10 +655,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>6929</v>
@@ -613,10 +673,10 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>1247</v>
@@ -631,17 +691,17 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5">
+    <row r="10" spans="1:12">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8">
         <v>0.5</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -649,10 +709,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>11534</v>
@@ -667,10 +727,10 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>2144</v>
@@ -685,24 +745,24 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="8">
         <v>0.15</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>3450</v>
@@ -711,34 +771,34 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
         <v>620</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5">
+    <row r="16" spans="1:12">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8">
         <v>0.3</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <v>6908</v>
@@ -747,10 +807,10 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
         <v>1205</v>
@@ -759,22 +819,22 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5">
+    <row r="19" spans="1:6">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8">
         <v>0.5</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
         <v>11506</v>
@@ -783,10 +843,10 @@
         <v>817</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
         <v>2086</v>
@@ -795,168 +855,200 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="8">
         <v>0.15</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8">
         <v>0.3</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5">
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8">
         <v>0.5</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="8">
         <v>0.15</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="7"/>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8">
         <v>0.3</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5">
+    <row r="37" spans="1:6">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8">
         <v>0.5</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
+    <row r="39" spans="1:6">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="B31:B33"/>
@@ -973,40 +1065,4749 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E13403-1615-409C-B6F8-DCB229F55D50}">
+  <dimension ref="A1:AH62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="1">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AG56" sqref="AG56:AH57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="10"/>
+    <col min="3" max="34" width="4.21875" style="3" customWidth="1"/>
+    <col min="35" max="16384" width="11.5546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.47826086956521702</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="14">
+        <v>0.81760491299897597</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="11">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14">
+        <v>0.807983623336745</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="11">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="14">
+        <v>0.85383828045035803</v>
+      </c>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="11">
+        <v>0.73913043478260798</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="14">
+        <v>0.77952917093142204</v>
+      </c>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3445</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>234</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>3191</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7">
+        <v>488</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>3420</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7">
+        <v>259</v>
+      </c>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>3357</v>
+      </c>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7">
+        <v>322</v>
+      </c>
+      <c r="AH4" s="7"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="13"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>13</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>657</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>549</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>450</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7">
+        <v>756</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>6</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>455</v>
+      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7">
+        <v>751</v>
+      </c>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>755</v>
+      </c>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7">
+        <v>451</v>
+      </c>
+      <c r="AH6" s="7"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.48888888888888798</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="14">
+        <v>0.81277510492373795</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="11">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="14">
+        <v>0.80632613368819706</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="11">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="14">
+        <v>0.84901218139011103</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="11">
+        <v>0.688888888888888</v>
+      </c>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="14">
+        <v>0.77060088033575502</v>
+      </c>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6862</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>498</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>6404</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7">
+        <v>956</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>6814</v>
+      </c>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7">
+        <v>546</v>
+      </c>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>6677</v>
+      </c>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7">
+        <v>683</v>
+      </c>
+      <c r="AH9" s="7"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3">
+        <v>6</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>23</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1331</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>1078</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>14</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>936</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7">
+        <v>1473</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>3</v>
+      </c>
+      <c r="U11" s="3">
+        <v>13</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>929</v>
+      </c>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7">
+        <v>1480</v>
+      </c>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>11</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>1558</v>
+      </c>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7">
+        <v>851</v>
+      </c>
+      <c r="AH11" s="7"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="13"/>
+      <c r="B13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.77027027027026995</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="14">
+        <v>0.81696455991646699</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="11">
+        <v>0.78378378378378299</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="14">
+        <v>0.81180517167250099</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="11">
+        <v>0.83783783783783705</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="14">
+        <v>0.85037774092500396</v>
+      </c>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="11">
+        <v>0.72972972972972905</v>
+      </c>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="14">
+        <v>0.77102143602972795</v>
+      </c>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="13"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>11543</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>802</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>10761</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7">
+        <v>1584</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>11412</v>
+      </c>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7">
+        <v>933</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>11222</v>
+      </c>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7">
+        <v>1123</v>
+      </c>
+      <c r="AH14" s="7"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="13"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>36</v>
+      </c>
+      <c r="M15" s="3">
+        <v>6</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>41</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>36</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2178</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>1758</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>6</v>
+      </c>
+      <c r="M16" s="3">
+        <v>21</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1480</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
+        <v>2456</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>6</v>
+      </c>
+      <c r="U16" s="3">
+        <v>21</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>1503</v>
+      </c>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7">
+        <v>2433</v>
+      </c>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>18</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>2605</v>
+      </c>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7">
+        <v>1331</v>
+      </c>
+      <c r="AH16" s="7"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="14">
+        <v>0.81862845445240495</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="11">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="14">
+        <v>0.807983623336745</v>
+      </c>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="11">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="14">
+        <v>0.85527123848515796</v>
+      </c>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="11">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="14">
+        <v>0.83213920163766597</v>
+      </c>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3438</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
+        <v>241</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>3191</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
+        <v>488</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>3424</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7">
+        <v>255</v>
+      </c>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>3323</v>
+      </c>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7">
+        <v>356</v>
+      </c>
+      <c r="AH19" s="7"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>12</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>12</v>
+      </c>
+      <c r="U20" s="3">
+        <v>2</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>11</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="13"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>645</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>561</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>6</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>450</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7">
+        <v>756</v>
+      </c>
+      <c r="R21" s="7"/>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>6</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1</v>
+      </c>
+      <c r="W21" s="7">
+        <v>452</v>
+      </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7">
+        <v>754</v>
+      </c>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>464</v>
+      </c>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7">
+        <v>742</v>
+      </c>
+      <c r="AH21" s="7"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="13"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1</v>
+      </c>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="13"/>
+      <c r="B23" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="11">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="14">
+        <v>0.805814310574265</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="11">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="14">
+        <v>0.84993346299518802</v>
+      </c>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="14">
+        <v>0.82976763230627404</v>
+      </c>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>6843</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>517</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>6400</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7">
+        <v>960</v>
+      </c>
+      <c r="R24" s="7"/>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7">
+        <v>6817</v>
+      </c>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7">
+        <v>543</v>
+      </c>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>6622</v>
+      </c>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7">
+        <v>738</v>
+      </c>
+      <c r="AH24" s="7"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="13"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>19</v>
+      </c>
+      <c r="M25" s="3">
+        <v>6</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>19</v>
+      </c>
+      <c r="U25" s="3">
+        <v>6</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>22</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="13"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1295</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>1114</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
+      <c r="M26" s="3">
+        <v>14</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>937</v>
+      </c>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7">
+        <v>1472</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>2</v>
+      </c>
+      <c r="U26" s="3">
+        <v>14</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>923</v>
+      </c>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7">
+        <v>1486</v>
+      </c>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>14</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>925</v>
+      </c>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7">
+        <v>1484</v>
+      </c>
+      <c r="AH26" s="7"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="13"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="13"/>
+      <c r="B28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.77027027027026995</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="14">
+        <v>0.81850009213193298</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="11">
+        <v>0.78378378378378299</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="14">
+        <v>0.81137522265217099</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="11">
+        <v>0.78378378378378299</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="14">
+        <v>0.85105337509980905</v>
+      </c>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="11">
+        <v>0.78378378378378299</v>
+      </c>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="14">
+        <v>0.83336404397764197</v>
+      </c>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="13"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>11506</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>839</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>10753</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7">
+        <v>1592</v>
+      </c>
+      <c r="R29" s="7"/>
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7">
+        <v>11418</v>
+      </c>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7">
+        <v>927</v>
+      </c>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="7">
+        <v>11129</v>
+      </c>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7">
+        <v>1216</v>
+      </c>
+      <c r="AH29" s="7"/>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="13"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>39</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>36</v>
+      </c>
+      <c r="M30" s="3">
+        <v>6</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>36</v>
+      </c>
+      <c r="U30" s="3">
+        <v>6</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>39</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="13"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3">
+        <v>18</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>2116</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7">
+        <v>1820</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>6</v>
+      </c>
+      <c r="M31" s="3">
+        <v>21</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1479</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7">
+        <v>2457</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>6</v>
+      </c>
+      <c r="U31" s="3">
+        <v>21</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>1498</v>
+      </c>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7">
+        <v>2438</v>
+      </c>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>1497</v>
+      </c>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7">
+        <v>2439</v>
+      </c>
+      <c r="AH31" s="7"/>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="13"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1</v>
+      </c>
+      <c r="U32" s="3">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="14">
+        <v>0.78075742067553699</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="14">
+        <v>0.82579324462640702</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="11">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="14">
+        <v>0.85301944728761503</v>
+      </c>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="14">
+        <v>0.777277379733879</v>
+      </c>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="13"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2773</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7">
+        <v>906</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>3246</v>
+      </c>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7">
+        <v>433</v>
+      </c>
+      <c r="R34" s="7"/>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="7">
+        <v>3408</v>
+      </c>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7">
+        <v>271</v>
+      </c>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>3353</v>
+      </c>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7">
+        <v>326</v>
+      </c>
+      <c r="AH34" s="7"/>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="13"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>13</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>13</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>12</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="13"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>165</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7">
+        <v>1041</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3">
+        <v>4</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="7">
+        <v>418</v>
+      </c>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7">
+        <v>788</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <v>1</v>
+      </c>
+      <c r="U36" s="3">
+        <v>6</v>
+      </c>
+      <c r="V36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="7">
+        <v>447</v>
+      </c>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7">
+        <v>756</v>
+      </c>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>762</v>
+      </c>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7">
+        <v>444</v>
+      </c>
+      <c r="AH36" s="7"/>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="13"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <v>1</v>
+      </c>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="13"/>
+      <c r="B38" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="14">
+        <v>0.77725458081686905</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="11">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="14">
+        <v>0.80642849831098296</v>
+      </c>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="11">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="14">
+        <v>0.84532705496980198</v>
+      </c>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="11">
+        <v>0.75555555555555498</v>
+      </c>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="14">
+        <v>0.77428600675606496</v>
+      </c>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="13"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>5512</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7">
+        <v>1848</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>6398</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7">
+        <v>962</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0</v>
+      </c>
+      <c r="V39" s="3">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>6787</v>
+      </c>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7">
+        <v>583</v>
+      </c>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>6712</v>
+      </c>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7">
+        <v>648</v>
+      </c>
+      <c r="AH39" s="7"/>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="13"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
+        <v>21</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>20</v>
+      </c>
+      <c r="M40" s="3">
+        <v>5</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>23</v>
+      </c>
+      <c r="U40" s="3">
+        <v>2</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0</v>
+      </c>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>22</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="13"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>328</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7">
+        <v>2081</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2</v>
+      </c>
+      <c r="M41" s="3">
+        <v>13</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="7">
+        <v>929</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7">
+        <v>1480</v>
+      </c>
+      <c r="R41" s="7"/>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>2</v>
+      </c>
+      <c r="U41" s="3">
+        <v>14</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="7">
+        <v>938</v>
+      </c>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7">
+        <v>1471</v>
+      </c>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>1557</v>
+      </c>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7">
+        <v>852</v>
+      </c>
+      <c r="AH41" s="7"/>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="13"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>2</v>
+      </c>
+      <c r="V42" s="3">
+        <v>1</v>
+      </c>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" s="13"/>
+      <c r="B43" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.66216216216216195</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="14">
+        <v>0.77851483324120097</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="11">
+        <v>0.74324324324324298</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="14">
+        <v>0.81321786131073004</v>
+      </c>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="11">
+        <v>0.83783783783783705</v>
+      </c>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="14">
+        <v>0.84853510226644502</v>
+      </c>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="11">
+        <v>0.81081081081080997</v>
+      </c>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="14">
+        <v>0.77280265339966803</v>
+      </c>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="13"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>9260</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7">
+        <v>3085</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>10775</v>
+      </c>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7">
+        <v>1570</v>
+      </c>
+      <c r="R44" s="7"/>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="7">
+        <v>11380</v>
+      </c>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7">
+        <v>965</v>
+      </c>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="7">
+        <v>11272</v>
+      </c>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7">
+        <v>1073</v>
+      </c>
+      <c r="AH44" s="7"/>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" s="13"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>27</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>35</v>
+      </c>
+      <c r="M45" s="3">
+        <v>7</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>41</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>40</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" s="13"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>22</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>521</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7">
+        <v>3415</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>7</v>
+      </c>
+      <c r="M46" s="3">
+        <v>20</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>1471</v>
+      </c>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7">
+        <v>2465</v>
+      </c>
+      <c r="R46" s="7"/>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>6</v>
+      </c>
+      <c r="U46" s="3">
+        <v>21</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="7">
+        <v>1501</v>
+      </c>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7">
+        <v>2435</v>
+      </c>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="7">
+        <v>2626</v>
+      </c>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7">
+        <v>1310</v>
+      </c>
+      <c r="AH46" s="7"/>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="13"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3">
+        <v>1</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.30434782608695599</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="14">
+        <v>0.44114636642784</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="11">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="14">
+        <v>0.82517911975434999</v>
+      </c>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="11">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="14">
+        <v>0.85179119754349997</v>
+      </c>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="11">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="14">
+        <v>0.82006141248720499</v>
+      </c>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="13"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>955</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7">
+        <v>2684</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>3244</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7">
+        <v>435</v>
+      </c>
+      <c r="R49" s="7"/>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>1</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="7">
+        <v>3404</v>
+      </c>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7">
+        <v>275</v>
+      </c>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="7">
+        <v>3314</v>
+      </c>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7">
+        <v>365</v>
+      </c>
+      <c r="AH49" s="7"/>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="13"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>14</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>13</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>13</v>
+      </c>
+      <c r="U50" s="3">
+        <v>1</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>12</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="13"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>6</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>46</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7">
+        <v>1160</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>2</v>
+      </c>
+      <c r="M51" s="3">
+        <v>4</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="7">
+        <v>419</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7">
+        <v>787</v>
+      </c>
+      <c r="R51" s="7"/>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>1</v>
+      </c>
+      <c r="U51" s="3">
+        <v>6</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="7">
+        <v>449</v>
+      </c>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7">
+        <v>757</v>
+      </c>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="7">
+        <v>514</v>
+      </c>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7">
+        <v>692</v>
+      </c>
+      <c r="AH51" s="7"/>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="13"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>1</v>
+      </c>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" s="13"/>
+      <c r="B53" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.37777777777777699</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="14">
+        <v>0.42901013409765498</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="11">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="14">
+        <v>0.80673559217934199</v>
+      </c>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="11">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="14">
+        <v>0.84583887808373404</v>
+      </c>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="11">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="14">
+        <v>0.81994062851878302</v>
+      </c>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" s="13"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1851</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7">
+        <v>5509</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>6397</v>
+      </c>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7">
+        <v>963</v>
+      </c>
+      <c r="R54" s="7"/>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>1</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="7">
+        <v>6793</v>
+      </c>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7">
+        <v>567</v>
+      </c>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="7">
+        <v>6633</v>
+      </c>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7">
+        <v>727</v>
+      </c>
+      <c r="AH54" s="7"/>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" s="13"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>24</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>20</v>
+      </c>
+      <c r="M55" s="3">
+        <v>5</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="3">
+        <v>0</v>
+      </c>
+      <c r="T55" s="3">
+        <v>23</v>
+      </c>
+      <c r="U55" s="3">
+        <v>2</v>
+      </c>
+      <c r="V55" s="3">
+        <v>0</v>
+      </c>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>19</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" s="13"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>69</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7">
+        <v>2340</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>2</v>
+      </c>
+      <c r="M56" s="3">
+        <v>13</v>
+      </c>
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="7">
+        <v>925</v>
+      </c>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7">
+        <v>1484</v>
+      </c>
+      <c r="R56" s="7"/>
+      <c r="S56" s="3">
+        <v>0</v>
+      </c>
+      <c r="T56" s="3">
+        <v>2</v>
+      </c>
+      <c r="U56" s="3">
+        <v>14</v>
+      </c>
+      <c r="V56" s="3">
+        <v>0</v>
+      </c>
+      <c r="W56" s="7">
+        <v>939</v>
+      </c>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7">
+        <v>1470</v>
+      </c>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>14</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="7">
+        <v>1032</v>
+      </c>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7">
+        <v>1377</v>
+      </c>
+      <c r="AH56" s="7"/>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" s="13"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2</v>
+      </c>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>2</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1</v>
+      </c>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" s="13"/>
+      <c r="B58" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0.59459459459459396</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="14">
+        <v>0.414286591732694</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="11">
+        <v>0.74324324324324298</v>
+      </c>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="14">
+        <v>0.81291075486763698</v>
+      </c>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="11">
+        <v>0.83783783783783705</v>
+      </c>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="14">
+        <v>0.84847368097782605</v>
+      </c>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="14"/>
+      <c r="AA58" s="11">
+        <v>0.78378378378378299</v>
+      </c>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="14">
+        <v>0.826423438363736</v>
+      </c>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="14"/>
+      <c r="AH58" s="14"/>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" s="13"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>2930</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7">
+        <v>9415</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>10769</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7">
+        <v>1579</v>
+      </c>
+      <c r="R59" s="7"/>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="7">
+        <v>11380</v>
+      </c>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7">
+        <v>965</v>
+      </c>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="7">
+        <v>11141</v>
+      </c>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7">
+        <v>1204</v>
+      </c>
+      <c r="AH59" s="7"/>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" s="13"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>22</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>35</v>
+      </c>
+      <c r="M60" s="3">
+        <v>7</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>41</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>34</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" s="13"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3">
+        <v>22</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>121</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7">
+        <v>3815</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>7</v>
+      </c>
+      <c r="M61" s="3">
+        <v>20</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
+        <v>1470</v>
+      </c>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7">
+        <v>2466</v>
+      </c>
+      <c r="R61" s="7"/>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>6</v>
+      </c>
+      <c r="U61" s="3">
+        <v>21</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="7">
+        <v>1502</v>
+      </c>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7">
+        <v>2434</v>
+      </c>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>24</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="7">
+        <v>1622</v>
+      </c>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7">
+        <v>2314</v>
+      </c>
+      <c r="AH61" s="7"/>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" s="13"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3">
+        <v>1</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="316">
+    <mergeCell ref="AE61:AF62"/>
+    <mergeCell ref="AG61:AH62"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="AA1:AH1"/>
+    <mergeCell ref="AE56:AF57"/>
+    <mergeCell ref="AG56:AH57"/>
+    <mergeCell ref="AA58:AD58"/>
+    <mergeCell ref="AE58:AH58"/>
+    <mergeCell ref="AE59:AF60"/>
+    <mergeCell ref="AG59:AH60"/>
+    <mergeCell ref="AE51:AF52"/>
+    <mergeCell ref="AG51:AH52"/>
+    <mergeCell ref="AA53:AD53"/>
+    <mergeCell ref="AE53:AH53"/>
+    <mergeCell ref="AE54:AF55"/>
+    <mergeCell ref="AG54:AH55"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AA48:AD48"/>
+    <mergeCell ref="AE48:AH48"/>
+    <mergeCell ref="AE49:AF50"/>
+    <mergeCell ref="AG49:AH50"/>
+    <mergeCell ref="AE41:AF42"/>
+    <mergeCell ref="AG41:AH42"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="AE43:AH43"/>
+    <mergeCell ref="AE44:AF45"/>
+    <mergeCell ref="AG44:AH45"/>
+    <mergeCell ref="AE36:AF37"/>
+    <mergeCell ref="AG36:AH37"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="AE39:AF40"/>
+    <mergeCell ref="AG39:AH40"/>
+    <mergeCell ref="AE31:AF32"/>
+    <mergeCell ref="AG31:AH32"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="AE33:AH33"/>
+    <mergeCell ref="AE34:AF35"/>
+    <mergeCell ref="AG34:AH35"/>
+    <mergeCell ref="AE26:AF27"/>
+    <mergeCell ref="AG26:AH27"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="AE28:AH28"/>
+    <mergeCell ref="AE29:AF30"/>
+    <mergeCell ref="AG29:AH30"/>
+    <mergeCell ref="AE21:AF22"/>
+    <mergeCell ref="AG21:AH22"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="AE23:AH23"/>
+    <mergeCell ref="AE24:AF25"/>
+    <mergeCell ref="AG24:AH25"/>
+    <mergeCell ref="AE16:AF17"/>
+    <mergeCell ref="AG16:AH17"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AE19:AF20"/>
+    <mergeCell ref="AG19:AH20"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AG11:AH12"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="AE13:AH13"/>
+    <mergeCell ref="AE14:AF15"/>
+    <mergeCell ref="AG14:AH15"/>
+    <mergeCell ref="AE6:AF7"/>
+    <mergeCell ref="AG6:AH7"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AE9:AF10"/>
+    <mergeCell ref="AG9:AH10"/>
+    <mergeCell ref="W59:X60"/>
+    <mergeCell ref="Y59:Z60"/>
+    <mergeCell ref="W61:X62"/>
+    <mergeCell ref="Y61:Z62"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="AG4:AH5"/>
+    <mergeCell ref="W54:X55"/>
+    <mergeCell ref="Y54:Z55"/>
+    <mergeCell ref="W56:X57"/>
+    <mergeCell ref="Y56:Z57"/>
+    <mergeCell ref="S58:V58"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="W49:X50"/>
+    <mergeCell ref="Y49:Z50"/>
+    <mergeCell ref="W51:X52"/>
+    <mergeCell ref="Y51:Z52"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="W53:Z53"/>
+    <mergeCell ref="W44:X45"/>
+    <mergeCell ref="Y44:Z45"/>
+    <mergeCell ref="W46:X47"/>
+    <mergeCell ref="Y46:Z47"/>
+    <mergeCell ref="S48:V48"/>
+    <mergeCell ref="W48:Z48"/>
+    <mergeCell ref="W39:X40"/>
+    <mergeCell ref="Y39:Z40"/>
+    <mergeCell ref="W41:X42"/>
+    <mergeCell ref="Y41:Z42"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="W34:X35"/>
+    <mergeCell ref="Y34:Z35"/>
+    <mergeCell ref="W36:X37"/>
+    <mergeCell ref="Y36:Z37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="W29:X30"/>
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="W24:X25"/>
+    <mergeCell ref="Y24:Z25"/>
+    <mergeCell ref="W26:X27"/>
+    <mergeCell ref="Y26:Z27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="W11:X12"/>
+    <mergeCell ref="Y11:Z12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="Q56:R57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="O59:P60"/>
+    <mergeCell ref="Q59:R60"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="O54:P55"/>
+    <mergeCell ref="Q54:R55"/>
+    <mergeCell ref="O46:P47"/>
+    <mergeCell ref="Q46:R47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q49:R50"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O44:P45"/>
+    <mergeCell ref="Q44:R45"/>
+    <mergeCell ref="O36:P37"/>
+    <mergeCell ref="Q36:R37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:R40"/>
+    <mergeCell ref="O31:P32"/>
+    <mergeCell ref="Q31:R32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:P35"/>
+    <mergeCell ref="Q34:R35"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="Q26:R27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:P30"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:P20"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G59:H60"/>
+    <mergeCell ref="I59:J60"/>
+    <mergeCell ref="G61:H62"/>
+    <mergeCell ref="I61:J62"/>
+    <mergeCell ref="I51:J52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:H50"/>
+    <mergeCell ref="I49:J50"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>